--- a/2. Báo cáo - giấy tờ/3. Sản xuất/Xuất Nhập Kho 2026/Nhập kho/Tháng 02/NKSX_50_RIFD_020226.xlsx
+++ b/2. Báo cáo - giấy tờ/3. Sản xuất/Xuất Nhập Kho 2026/Nhập kho/Tháng 02/NKSX_50_RIFD_020226.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\2. Báo cáo - giấy tờ\3. Sản xuất\Xuất Nhập Kho 2026\Nhập kho\Tháng 02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FE16B1-3B5B-402A-AFA2-5E744306DF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE727B8-6FA3-4AA3-9D2B-B71CFBCD57E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NhapKho_SX" sheetId="10" r:id="rId1"/>
@@ -115,13 +115,13 @@
     <t>Nhập kho thành phẩm</t>
   </si>
   <si>
-    <t>Lô 1 - 2026</t>
-  </si>
-  <si>
     <t>TP_RFID_Version 2</t>
   </si>
   <si>
     <t>IMEI</t>
+  </si>
+  <si>
+    <t>Lô 1 - 2026 (1000 RFID)</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -444,15 +444,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -486,6 +477,24 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -543,23 +552,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -593,8 +590,8 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>307039</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>164224</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -974,8 +971,8 @@
   </sheetPr>
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="145" zoomScaleNormal="130" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="130" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -990,66 +987,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="36" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="39" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="40"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="43"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="39" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="41" t="s">
+      <c r="A4" s="36"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="1:8" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -1061,7 +1058,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="14" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1073,9 +1070,9 @@
       <c r="C7" s="9"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:8" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
@@ -1090,66 +1087,66 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
+    <row r="10" spans="1:8" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="46">
         <v>1</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="47">
         <v>50</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="10" t="s">
+      <c r="E10" s="46"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>29</v>
+      <c r="H10" s="46" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1158,125 +1155,125 @@
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44" t="s">
+      <c r="D13" s="25"/>
+      <c r="E13" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44" t="s">
+      <c r="F13" s="25"/>
+      <c r="G13" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="44"/>
+      <c r="H13" s="25"/>
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43" t="s">
+      <c r="D14" s="26"/>
+      <c r="E14" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43" t="s">
+      <c r="F14" s="26"/>
+      <c r="G14" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="43"/>
+      <c r="H14" s="26"/>
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="16"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="16"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="16"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="16"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44" t="s">
+      <c r="D20" s="25"/>
+      <c r="E20" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44" t="s">
+      <c r="F20" s="25"/>
+      <c r="G20" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="44"/>
+      <c r="H20" s="25"/>
     </row>
     <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
     </row>
     <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:8" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
     </row>
     <row r="27" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1285,24 +1282,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="D4:H4"/>
   </mergeCells>
   <pageMargins left="0.5" right="1" top="1" bottom="1" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1314,421 +1311,421 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D42B1DC-F24B-47FD-BEE3-68DFD223B9FE}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="24">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23">
+        <v>202602020950001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="24">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23">
+        <v>202602020950002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="24">
+        <v>3</v>
+      </c>
+      <c r="B4" s="23">
+        <v>202602020950003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="24">
+        <v>4</v>
+      </c>
+      <c r="B5" s="23">
+        <v>202602020950004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="24">
+        <v>5</v>
+      </c>
+      <c r="B6" s="23">
+        <v>202602020950005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="24">
+        <v>6</v>
+      </c>
+      <c r="B7" s="23">
+        <v>202602020950006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="24">
+        <v>7</v>
+      </c>
+      <c r="B8" s="23">
+        <v>202602020950007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="24">
+        <v>8</v>
+      </c>
+      <c r="B9" s="23">
+        <v>202602020950008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="24">
+        <v>9</v>
+      </c>
+      <c r="B10" s="23">
+        <v>202602020950009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="24">
+        <v>10</v>
+      </c>
+      <c r="B11" s="23">
+        <v>202602020950010</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="24">
+        <v>11</v>
+      </c>
+      <c r="B12" s="23">
+        <v>202602020950011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="24">
+        <v>12</v>
+      </c>
+      <c r="B13" s="23">
+        <v>202602020950012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="24">
+        <v>13</v>
+      </c>
+      <c r="B14" s="23">
+        <v>202602020950013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="24">
+        <v>14</v>
+      </c>
+      <c r="B15" s="23">
+        <v>202602020950014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="24">
+        <v>15</v>
+      </c>
+      <c r="B16" s="23">
+        <v>202602020950015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="24">
+        <v>16</v>
+      </c>
+      <c r="B17" s="23">
+        <v>202602020950016</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="24">
+        <v>17</v>
+      </c>
+      <c r="B18" s="23">
+        <v>202602020950017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="24">
+        <v>18</v>
+      </c>
+      <c r="B19" s="23">
+        <v>202602020950018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="24">
+        <v>19</v>
+      </c>
+      <c r="B20" s="23">
+        <v>202602020950019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="24">
+        <v>20</v>
+      </c>
+      <c r="B21" s="23">
+        <v>202602020950020</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="24">
+        <v>21</v>
+      </c>
+      <c r="B22" s="23">
+        <v>202602020950021</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="24">
+        <v>22</v>
+      </c>
+      <c r="B23" s="23">
+        <v>202602020950022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="23">
+        <v>202602020950023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="24">
+        <v>24</v>
+      </c>
+      <c r="B25" s="23">
+        <v>202602020950024</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="24">
+        <v>25</v>
+      </c>
+      <c r="B26" s="23">
+        <v>202602020950025</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="24">
+        <v>26</v>
+      </c>
+      <c r="B27" s="23">
+        <v>202602020950026</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="24">
+        <v>27</v>
+      </c>
+      <c r="B28" s="23">
+        <v>202602020950027</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="24">
+        <v>28</v>
+      </c>
+      <c r="B29" s="23">
+        <v>202602020950028</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="24">
+        <v>29</v>
+      </c>
+      <c r="B30" s="23">
+        <v>202602020950029</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="24">
+        <v>30</v>
+      </c>
+      <c r="B31" s="23">
+        <v>202602020950030</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="24">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="48">
-        <v>1</v>
-      </c>
-      <c r="B2" s="47">
-        <v>202602020950001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="48">
-        <v>2</v>
-      </c>
-      <c r="B3" s="47">
-        <v>202602020950002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="48">
-        <v>3</v>
-      </c>
-      <c r="B4" s="47">
-        <v>202602020950003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="48">
-        <v>4</v>
-      </c>
-      <c r="B5" s="47">
-        <v>202602020950004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="48">
-        <v>5</v>
-      </c>
-      <c r="B6" s="47">
-        <v>202602020950005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="48">
-        <v>6</v>
-      </c>
-      <c r="B7" s="47">
-        <v>202602020950006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="48">
-        <v>7</v>
-      </c>
-      <c r="B8" s="47">
-        <v>202602020950007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="48">
-        <v>8</v>
-      </c>
-      <c r="B9" s="47">
-        <v>202602020950008</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="48">
-        <v>9</v>
-      </c>
-      <c r="B10" s="47">
-        <v>202602020950009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="48">
-        <v>10</v>
-      </c>
-      <c r="B11" s="47">
-        <v>202602020950010</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="48">
-        <v>11</v>
-      </c>
-      <c r="B12" s="47">
-        <v>202602020950011</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="48">
-        <v>12</v>
-      </c>
-      <c r="B13" s="47">
-        <v>202602020950012</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="48">
-        <v>13</v>
-      </c>
-      <c r="B14" s="47">
-        <v>202602020950013</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="48">
-        <v>14</v>
-      </c>
-      <c r="B15" s="47">
-        <v>202602020950014</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="48">
-        <v>15</v>
-      </c>
-      <c r="B16" s="47">
-        <v>202602020950015</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="48">
-        <v>16</v>
-      </c>
-      <c r="B17" s="47">
-        <v>202602020950016</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="48">
-        <v>17</v>
-      </c>
-      <c r="B18" s="47">
-        <v>202602020950017</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="48">
-        <v>18</v>
-      </c>
-      <c r="B19" s="47">
-        <v>202602020950018</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="48">
-        <v>19</v>
-      </c>
-      <c r="B20" s="47">
-        <v>202602020950019</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="48">
-        <v>20</v>
-      </c>
-      <c r="B21" s="47">
-        <v>202602020950020</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="48">
-        <v>21</v>
-      </c>
-      <c r="B22" s="47">
-        <v>202602020950021</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="48">
-        <v>22</v>
-      </c>
-      <c r="B23" s="47">
-        <v>202602020950022</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="48">
-        <v>23</v>
-      </c>
-      <c r="B24" s="47">
-        <v>202602020950023</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="48">
-        <v>24</v>
-      </c>
-      <c r="B25" s="47">
-        <v>202602020950024</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="48">
-        <v>25</v>
-      </c>
-      <c r="B26" s="47">
-        <v>202602020950025</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="48">
-        <v>26</v>
-      </c>
-      <c r="B27" s="47">
-        <v>202602020950026</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="48">
-        <v>27</v>
-      </c>
-      <c r="B28" s="47">
-        <v>202602020950027</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="48">
-        <v>28</v>
-      </c>
-      <c r="B29" s="47">
-        <v>202602020950028</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="48">
-        <v>29</v>
-      </c>
-      <c r="B30" s="47">
-        <v>202602020950029</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="48">
-        <v>30</v>
-      </c>
-      <c r="B31" s="47">
-        <v>202602020950030</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="48">
-        <v>31</v>
-      </c>
-      <c r="B32" s="47">
+      <c r="B32" s="23">
         <v>202602020950031</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="48">
+      <c r="A33" s="24">
         <v>32</v>
       </c>
-      <c r="B33" s="47">
+      <c r="B33" s="23">
         <v>202602020950032</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="48">
+      <c r="A34" s="24">
         <v>33</v>
       </c>
-      <c r="B34" s="47">
+      <c r="B34" s="23">
         <v>202602020950033</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="48">
+      <c r="A35" s="24">
         <v>34</v>
       </c>
-      <c r="B35" s="47">
+      <c r="B35" s="23">
         <v>202602020950034</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="48">
+      <c r="A36" s="24">
         <v>35</v>
       </c>
-      <c r="B36" s="47">
+      <c r="B36" s="23">
         <v>202602020950035</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="48">
+      <c r="A37" s="24">
         <v>36</v>
       </c>
-      <c r="B37" s="47">
+      <c r="B37" s="23">
         <v>202602020950036</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="48">
+      <c r="A38" s="24">
         <v>37</v>
       </c>
-      <c r="B38" s="47">
+      <c r="B38" s="23">
         <v>202602020950037</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="48">
+      <c r="A39" s="24">
         <v>38</v>
       </c>
-      <c r="B39" s="47">
+      <c r="B39" s="23">
         <v>202602020950038</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="48">
+      <c r="A40" s="24">
         <v>39</v>
       </c>
-      <c r="B40" s="47">
+      <c r="B40" s="23">
         <v>202602020950039</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="48">
+      <c r="A41" s="24">
         <v>40</v>
       </c>
-      <c r="B41" s="47">
+      <c r="B41" s="23">
         <v>202602020950040</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="48">
+      <c r="A42" s="24">
         <v>41</v>
       </c>
-      <c r="B42" s="47">
+      <c r="B42" s="23">
         <v>202602020950041</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="48">
+      <c r="A43" s="24">
         <v>42</v>
       </c>
-      <c r="B43" s="47">
+      <c r="B43" s="23">
         <v>202602020950042</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="48">
+      <c r="A44" s="24">
         <v>43</v>
       </c>
-      <c r="B44" s="47">
+      <c r="B44" s="23">
         <v>202602020950043</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="48">
+      <c r="A45" s="24">
         <v>44</v>
       </c>
-      <c r="B45" s="47">
+      <c r="B45" s="23">
         <v>202602020950044</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="48">
+      <c r="A46" s="24">
         <v>45</v>
       </c>
-      <c r="B46" s="47">
+      <c r="B46" s="23">
         <v>202602020950045</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="48">
+      <c r="A47" s="24">
         <v>46</v>
       </c>
-      <c r="B47" s="47">
+      <c r="B47" s="23">
         <v>202602020950046</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="48">
+      <c r="A48" s="24">
         <v>47</v>
       </c>
-      <c r="B48" s="47">
+      <c r="B48" s="23">
         <v>202602020950047</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="48">
+      <c r="A49" s="24">
         <v>48</v>
       </c>
-      <c r="B49" s="47">
+      <c r="B49" s="23">
         <v>202602020950048</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="48">
+      <c r="A50" s="24">
         <v>49</v>
       </c>
-      <c r="B50" s="47">
+      <c r="B50" s="23">
         <v>202602020950049</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A51" s="48">
+      <c r="A51" s="24">
         <v>50</v>
       </c>
-      <c r="B51" s="47">
+      <c r="B51" s="23">
         <v>202602020950050</v>
       </c>
     </row>
